--- a/assets/ziaci-vzor.xlsx
+++ b/assets/ziaci-vzor.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27218"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_92486175C7C99423EA099E19863E8C1851038387" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD287417-F80A-4ABF-9CAC-A60EA799F7D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{985BEF64-90DE-4DE8-9626-271321E28F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Meno Priezvisko</t>
   </si>
@@ -41,38 +41,15 @@
   <si>
     <t>Trieda</t>
   </si>
-  <si>
-    <t>Jozef Švagerko</t>
-  </si>
-  <si>
-    <t>test99@gmail.com</t>
-  </si>
-  <si>
-    <t>1.A</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>svagi.yt@gmail.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,16 +72,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,17 +391,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="A4:C16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -441,72 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="1"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0C8B4396-9FB8-4610-9DB7-CDB0341B88E1}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{62BE872C-C023-416F-971C-5F1356C75E0C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>